--- a/public/download/actualisation/MAT-donnees-branches-2018_actualisation-2021.xlsx
+++ b/public/download/actualisation/MAT-donnees-branches-2018_actualisation-2021.xlsx
@@ -370,10 +370,10 @@
     <t xml:space="preserve">91376</t>
   </si>
   <si>
-    <t xml:space="preserve">13195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13625</t>
+    <t xml:space="preserve">13194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13624</t>
   </si>
   <si>
     <t xml:space="preserve">3,259</t>
@@ -388,10 +388,10 @@
     <t xml:space="preserve">4921</t>
   </si>
   <si>
-    <t xml:space="preserve">88103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90975</t>
+    <t xml:space="preserve">88102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90973</t>
   </si>
   <si>
     <t xml:space="preserve">FABRICATION DE DENRÉES ALIMENTAIRES, DE BOISSONS ET DE PRODUITS À BASE DE TABAC</t>
@@ -418,10 +418,10 @@
     <t xml:space="preserve">17027</t>
   </si>
   <si>
-    <t xml:space="preserve">6079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6277</t>
+    <t xml:space="preserve">6078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6276</t>
   </si>
   <si>
     <t xml:space="preserve">TRAVAIL DU BOIS, INDUSTRIES DU PAPIER ET IMPRIMERIE</t>
@@ -433,10 +433,10 @@
     <t xml:space="preserve">36786</t>
   </si>
   <si>
-    <t xml:space="preserve">7882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8139</t>
+    <t xml:space="preserve">7881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8138</t>
   </si>
   <si>
     <t xml:space="preserve">COKÉFACTION ET RAFFINAGE</t>
@@ -448,10 +448,10 @@
     <t xml:space="preserve">38878</t>
   </si>
   <si>
-    <t xml:space="preserve">81624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84284</t>
+    <t xml:space="preserve">81616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84276</t>
   </si>
   <si>
     <t xml:space="preserve">INDUSTRIE CHIMIQUE</t>
@@ -463,10 +463,10 @@
     <t xml:space="preserve">66012</t>
   </si>
   <si>
-    <t xml:space="preserve">20509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21177</t>
+    <t xml:space="preserve">20507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21175</t>
   </si>
   <si>
     <t xml:space="preserve">INDUSTRIE PHARMACEUTIQUE</t>
@@ -493,10 +493,10 @@
     <t xml:space="preserve">54950</t>
   </si>
   <si>
-    <t xml:space="preserve">11008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11367</t>
+    <t xml:space="preserve">11007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11366</t>
   </si>
   <si>
     <t xml:space="preserve">MÉTALLURGIE ET FABRICATION DE PRODUITS MÉTALLIQUES, HORS MACHINES ET ÉQUIPEMENTS</t>
@@ -508,10 +508,10 @@
     <t xml:space="preserve">87559</t>
   </si>
   <si>
-    <t xml:space="preserve">11235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11601</t>
+    <t xml:space="preserve">11234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11600</t>
   </si>
   <si>
     <t xml:space="preserve">FABRICATION DE PRODUITS INFORMATIQUES, ÉLECTRONIQUES ET OPTIQUES</t>
@@ -523,10 +523,10 @@
     <t xml:space="preserve">26002</t>
   </si>
   <si>
-    <t xml:space="preserve">5510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5690</t>
+    <t xml:space="preserve">5509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5689</t>
   </si>
   <si>
     <t xml:space="preserve">FABRICATION D ÉQUIPEMENTS ÉLECTRIQUES</t>
@@ -538,10 +538,10 @@
     <t xml:space="preserve">20965</t>
   </si>
   <si>
-    <t xml:space="preserve">6348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6555</t>
+    <t xml:space="preserve">6347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6554</t>
   </si>
   <si>
     <t xml:space="preserve">FABRICATION DE MACHINES ET ÉQUIPEMENTS N.C.A.</t>
@@ -568,10 +568,10 @@
     <t xml:space="preserve">144733</t>
   </si>
   <si>
-    <t xml:space="preserve">5976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6171</t>
+    <t xml:space="preserve">5975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6170</t>
   </si>
   <si>
     <t xml:space="preserve">AUTRES INDUSTRIES MANUFACTURIÈRES ; RÉPARATION ET INSTALLATION DE MACHINES ET D'ÉQUIPEMENTS</t>
@@ -583,10 +583,10 @@
     <t xml:space="preserve">74608</t>
   </si>
   <si>
-    <t xml:space="preserve">5089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5255</t>
+    <t xml:space="preserve">5088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5254</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCTION ET DISTRIBUTION D'ÉLECTRICITÉ, DE GAZ, DE VAPEUR ET D'AIR CONDITIONNÉ</t>
@@ -598,10 +598,10 @@
     <t xml:space="preserve">124778</t>
   </si>
   <si>
-    <t xml:space="preserve">27346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28237</t>
+    <t xml:space="preserve">27343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28234</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCTION ET DISTRIBUTION D'EAU ; ASSAINISSEMENT, GESTION DES DÉCHETS ET DÉPOLLUTION</t>
@@ -613,10 +613,10 @@
     <t xml:space="preserve">39410</t>
   </si>
   <si>
-    <t xml:space="preserve">6060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6258</t>
+    <t xml:space="preserve">6059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6256</t>
   </si>
   <si>
     <t xml:space="preserve">CONSTRUCTION</t>
@@ -643,10 +643,10 @@
     <t xml:space="preserve">442412</t>
   </si>
   <si>
-    <t xml:space="preserve">4251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4390</t>
+    <t xml:space="preserve">4250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4389</t>
   </si>
   <si>
     <t xml:space="preserve">TRANSPORTS ET ENTREPOSAGE</t>
@@ -658,10 +658,10 @@
     <t xml:space="preserve">215507</t>
   </si>
   <si>
-    <t xml:space="preserve">10805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11157</t>
+    <t xml:space="preserve">10804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11156</t>
   </si>
   <si>
     <t xml:space="preserve">HÉBERGEMENT ET RESTAURATION</t>
@@ -688,10 +688,10 @@
     <t xml:space="preserve">56839</t>
   </si>
   <si>
-    <t xml:space="preserve">5117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5284</t>
+    <t xml:space="preserve">5116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5283</t>
   </si>
   <si>
     <t xml:space="preserve">TÉLÉCOMMUNICATIONS</t>
@@ -703,10 +703,10 @@
     <t xml:space="preserve">54383</t>
   </si>
   <si>
-    <t xml:space="preserve">4261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4400</t>
+    <t xml:space="preserve">4260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4399</t>
   </si>
   <si>
     <t xml:space="preserve">ACTIVITÉS INFORMATIQUES ET SERVICES D'INFORMATION</t>
@@ -808,10 +808,10 @@
     <t xml:space="preserve">210564</t>
   </si>
   <si>
-    <t xml:space="preserve">3005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3103</t>
+    <t xml:space="preserve">3004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3102</t>
   </si>
   <si>
     <t xml:space="preserve">ADMINISTRATION PUBLIQUE ET DÉFENSE - SÉCURITÉ SOCIALE OBLIGATOIRE</t>
@@ -838,10 +838,10 @@
     <t xml:space="preserve">138012</t>
   </si>
   <si>
-    <t xml:space="preserve">1935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
+    <t xml:space="preserve">1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
   </si>
   <si>
     <t xml:space="preserve">ACTIVITÉS POUR LA SANTÉ HUMAINE</t>
@@ -883,10 +883,10 @@
     <t xml:space="preserve">55003</t>
   </si>
   <si>
-    <t xml:space="preserve">4565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4714</t>
+    <t xml:space="preserve">4564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4713</t>
   </si>
   <si>
     <t xml:space="preserve">AUTRES ACTIVITÉS DE SERVICES</t>
@@ -940,127 +940,127 @@
     <t xml:space="preserve">92131</t>
   </si>
   <si>
-    <t xml:space="preserve">13425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13863</t>
+    <t xml:space="preserve">13424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13861,5</t>
   </si>
   <si>
     <t xml:space="preserve">46079</t>
   </si>
   <si>
-    <t xml:space="preserve">120820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124758</t>
+    <t xml:space="preserve">120808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124745,5</t>
   </si>
   <si>
     <t xml:space="preserve">217841</t>
   </si>
   <si>
-    <t xml:space="preserve">8798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9085</t>
+    <t xml:space="preserve">8797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9083,7</t>
   </si>
   <si>
     <t xml:space="preserve">56600</t>
   </si>
   <si>
-    <t xml:space="preserve">6166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6367</t>
+    <t xml:space="preserve">6165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6365,9</t>
   </si>
   <si>
     <t xml:space="preserve">50770</t>
   </si>
   <si>
-    <t xml:space="preserve">7939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8198</t>
+    <t xml:space="preserve">7938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8196,7</t>
   </si>
   <si>
     <t xml:space="preserve">63598</t>
   </si>
   <si>
-    <t xml:space="preserve">82625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85318</t>
+    <t xml:space="preserve">82617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85309,7</t>
   </si>
   <si>
     <t xml:space="preserve">112677</t>
   </si>
   <si>
-    <t xml:space="preserve">20674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21348</t>
+    <t xml:space="preserve">20672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21345,8</t>
   </si>
   <si>
     <t xml:space="preserve">53523</t>
   </si>
   <si>
-    <t xml:space="preserve">5730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5917</t>
+    <t xml:space="preserve">5729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5915,7</t>
   </si>
   <si>
     <t xml:space="preserve">81954</t>
   </si>
   <si>
-    <t xml:space="preserve">11089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11450</t>
+    <t xml:space="preserve">11088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11449,4</t>
   </si>
   <si>
     <t xml:space="preserve">129235</t>
   </si>
   <si>
-    <t xml:space="preserve">11323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11692</t>
+    <t xml:space="preserve">11322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11691</t>
   </si>
   <si>
     <t xml:space="preserve">74079</t>
   </si>
   <si>
-    <t xml:space="preserve">5588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5770</t>
+    <t xml:space="preserve">5587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5769,1</t>
   </si>
   <si>
     <t xml:space="preserve">49593</t>
   </si>
   <si>
-    <t xml:space="preserve">6411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6620</t>
+    <t xml:space="preserve">6410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6618,9</t>
   </si>
   <si>
     <t xml:space="preserve">84430</t>
   </si>
   <si>
-    <t xml:space="preserve">6174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6375</t>
+    <t xml:space="preserve">6173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6374,2</t>
   </si>
   <si>
     <t xml:space="preserve">247901</t>
   </si>
   <si>
-    <t xml:space="preserve">6026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6222</t>
+    <t xml:space="preserve">6025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6221,4</t>
   </si>
   <si>
     <t xml:space="preserve">108548</t>
@@ -1069,25 +1069,25 @@
     <t xml:space="preserve">5107</t>
   </si>
   <si>
-    <t xml:space="preserve">5273</t>
+    <t xml:space="preserve">5273,5</t>
   </si>
   <si>
     <t xml:space="preserve">125622</t>
   </si>
   <si>
-    <t xml:space="preserve">27302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28192</t>
+    <t xml:space="preserve">27299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28188,8</t>
   </si>
   <si>
     <t xml:space="preserve">53431</t>
   </si>
   <si>
-    <t xml:space="preserve">5410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5586</t>
+    <t xml:space="preserve">5409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5585,3</t>
   </si>
   <si>
     <t xml:space="preserve">298417</t>
@@ -1096,7 +1096,7 @@
     <t xml:space="preserve">5740</t>
   </si>
   <si>
-    <t xml:space="preserve">5927</t>
+    <t xml:space="preserve">5927,1</t>
   </si>
   <si>
     <t xml:space="preserve">451825</t>
@@ -1105,16 +1105,16 @@
     <t xml:space="preserve">4242</t>
   </si>
   <si>
-    <t xml:space="preserve">4380</t>
+    <t xml:space="preserve">4380,3</t>
   </si>
   <si>
     <t xml:space="preserve">246436</t>
   </si>
   <si>
-    <t xml:space="preserve">10801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11153</t>
+    <t xml:space="preserve">10800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11152</t>
   </si>
   <si>
     <t xml:space="preserve">115922</t>
@@ -1123,7 +1123,7 @@
     <t xml:space="preserve">4460</t>
   </si>
   <si>
-    <t xml:space="preserve">4605</t>
+    <t xml:space="preserve">4605,4</t>
   </si>
   <si>
     <t xml:space="preserve">63985</t>
@@ -1132,16 +1132,16 @@
     <t xml:space="preserve">5060</t>
   </si>
   <si>
-    <t xml:space="preserve">5225</t>
+    <t xml:space="preserve">5224,9</t>
   </si>
   <si>
     <t xml:space="preserve">58702</t>
   </si>
   <si>
-    <t xml:space="preserve">4257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4396</t>
+    <t xml:space="preserve">4256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4394,7</t>
   </si>
   <si>
     <t xml:space="preserve">114519</t>
@@ -1150,7 +1150,7 @@
     <t xml:space="preserve">2528</t>
   </si>
   <si>
-    <t xml:space="preserve">2610</t>
+    <t xml:space="preserve">2610,4</t>
   </si>
   <si>
     <t xml:space="preserve">237250</t>
@@ -1159,43 +1159,43 @@
     <t xml:space="preserve">2586</t>
   </si>
   <si>
-    <t xml:space="preserve">2670</t>
+    <t xml:space="preserve">2670,3</t>
   </si>
   <si>
     <t xml:space="preserve">331336</t>
   </si>
   <si>
-    <t xml:space="preserve">2606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2691</t>
+    <t xml:space="preserve">2605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2689,9</t>
   </si>
   <si>
     <t xml:space="preserve">290235</t>
   </si>
   <si>
-    <t xml:space="preserve">2741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2830</t>
+    <t xml:space="preserve">2740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2829,3</t>
   </si>
   <si>
     <t xml:space="preserve">74905</t>
   </si>
   <si>
-    <t xml:space="preserve">3613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3731</t>
+    <t xml:space="preserve">3612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3729,7</t>
   </si>
   <si>
     <t xml:space="preserve">45495</t>
   </si>
   <si>
-    <t xml:space="preserve">4033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4164</t>
+    <t xml:space="preserve">4032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4163,4</t>
   </si>
   <si>
     <t xml:space="preserve">250449</t>
@@ -1213,7 +1213,7 @@
     <t xml:space="preserve">3308</t>
   </si>
   <si>
-    <t xml:space="preserve">3416</t>
+    <t xml:space="preserve">3415,8</t>
   </si>
   <si>
     <t xml:space="preserve">137165</t>
@@ -1222,7 +1222,7 @@
     <t xml:space="preserve">1940</t>
   </si>
   <si>
-    <t xml:space="preserve">2003</t>
+    <t xml:space="preserve">2003,2</t>
   </si>
   <si>
     <t xml:space="preserve">169428</t>
@@ -1231,7 +1231,7 @@
     <t xml:space="preserve">2039</t>
   </si>
   <si>
-    <t xml:space="preserve">2105</t>
+    <t xml:space="preserve">2105,5</t>
   </si>
   <si>
     <t xml:space="preserve">84247</t>
@@ -1240,7 +1240,7 @@
     <t xml:space="preserve">1668</t>
   </si>
   <si>
-    <t xml:space="preserve">1722</t>
+    <t xml:space="preserve">1722,4</t>
   </si>
   <si>
     <t xml:space="preserve">54651</t>
@@ -1249,7 +1249,7 @@
     <t xml:space="preserve">4553</t>
   </si>
   <si>
-    <t xml:space="preserve">4701</t>
+    <t xml:space="preserve">4701,4</t>
   </si>
   <si>
     <t xml:space="preserve">47773</t>
@@ -1258,16 +1258,16 @@
     <t xml:space="preserve">2980</t>
   </si>
   <si>
-    <t xml:space="preserve">3077</t>
+    <t xml:space="preserve">3077,1</t>
   </si>
   <si>
     <t xml:space="preserve">4918916</t>
   </si>
   <si>
-    <t xml:space="preserve">8071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8334</t>
+    <t xml:space="preserve">8070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8333</t>
   </si>
 </sst>
 </file>
@@ -3843,9 +3843,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76DB7A2B-98D9-4E03-B029-455271F6E837}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98A82436-1E4F-4B13-95AC-079E00D247FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F729F28-6E8C-4F43-97C4-CAF710A4DB1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0C75DDD-DD90-4472-B167-8956FC5FBEB3}"/>
 </file>